--- a/TP04/documents/Liste de vérification du code.xlsx
+++ b/TP04/documents/Liste de vérification du code.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Liste de vérification du code</t>
   </si>
@@ -111,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -122,6 +120,9 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +429,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,15 +445,18 @@
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -470,31 +474,41 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -506,28 +520,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>